--- a/Code/Results/Cases/Case_0_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_200/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.41115793901835</v>
+        <v>4.926203513158953</v>
       </c>
       <c r="D2">
-        <v>1.83401339354085</v>
+        <v>2.696935350347433</v>
       </c>
       <c r="E2">
-        <v>3.345870749751863</v>
+        <v>9.551055133018757</v>
       </c>
       <c r="F2">
-        <v>24.47344013240286</v>
+        <v>20.21922706236545</v>
       </c>
       <c r="G2">
-        <v>36.15136806300247</v>
+        <v>24.03770515646365</v>
       </c>
       <c r="H2">
-        <v>9.587813160689072</v>
+        <v>11.68526316216086</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.02811517950464</v>
+        <v>19.2229271115908</v>
       </c>
       <c r="N2">
-        <v>19.66461490238216</v>
+        <v>17.18717348326094</v>
       </c>
       <c r="O2">
-        <v>18.5998025222759</v>
+        <v>17.36657399609888</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.89241465409922</v>
+        <v>4.750295668971268</v>
       </c>
       <c r="D3">
-        <v>1.784022412082273</v>
+        <v>2.691275868332867</v>
       </c>
       <c r="E3">
-        <v>3.868816160194632</v>
+        <v>9.730900890615883</v>
       </c>
       <c r="F3">
-        <v>22.86616917307205</v>
+        <v>19.82259608954563</v>
       </c>
       <c r="G3">
-        <v>33.58137496650911</v>
+        <v>23.15132912399772</v>
       </c>
       <c r="H3">
-        <v>9.165328876056805</v>
+        <v>11.64445299993882</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.13520470624087</v>
+        <v>18.43818122716748</v>
       </c>
       <c r="N3">
-        <v>18.80265232162976</v>
+        <v>16.88879049546276</v>
       </c>
       <c r="O3">
-        <v>17.46895697588461</v>
+        <v>17.1446210889951</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.556698550771054</v>
+        <v>4.640462652753223</v>
       </c>
       <c r="D4">
-        <v>1.764017621570132</v>
+        <v>2.687756574144641</v>
       </c>
       <c r="E4">
-        <v>4.198170660395945</v>
+        <v>9.846501334249391</v>
       </c>
       <c r="F4">
-        <v>21.87342241367642</v>
+        <v>19.58242330420264</v>
       </c>
       <c r="G4">
-        <v>31.93101251325303</v>
+        <v>22.59898279841709</v>
       </c>
       <c r="H4">
-        <v>8.904956199804566</v>
+        <v>11.62248522319309</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.90571428770915</v>
+        <v>17.93973538741299</v>
       </c>
       <c r="N4">
-        <v>18.25572052158294</v>
+        <v>16.7048604796733</v>
       </c>
       <c r="O4">
-        <v>16.77202140388745</v>
+        <v>17.01289557268333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.415520339181962</v>
+        <v>4.595326335925164</v>
       </c>
       <c r="D5">
-        <v>1.758807466399638</v>
+        <v>2.686311698858806</v>
       </c>
       <c r="E5">
-        <v>4.334390834248723</v>
+        <v>9.894915050933371</v>
       </c>
       <c r="F5">
-        <v>21.46065721410685</v>
+        <v>19.48555034359608</v>
       </c>
       <c r="G5">
-        <v>31.24024585484168</v>
+        <v>22.37228249242559</v>
       </c>
       <c r="H5">
-        <v>8.798745541071723</v>
+        <v>11.61431598305299</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.38771026305611</v>
+        <v>17.73271209059684</v>
       </c>
       <c r="N5">
-        <v>18.02867759542641</v>
+        <v>16.62982047292599</v>
       </c>
       <c r="O5">
-        <v>16.48365817415332</v>
+        <v>16.96042918365005</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.391812518044926</v>
+        <v>4.587811108341602</v>
       </c>
       <c r="D6">
-        <v>1.757937645120888</v>
+        <v>2.686071142315282</v>
       </c>
       <c r="E6">
-        <v>4.357130370721032</v>
+        <v>9.903033097455941</v>
       </c>
       <c r="F6">
-        <v>21.39163113892636</v>
+        <v>19.46952953201829</v>
       </c>
       <c r="G6">
-        <v>31.12444391833701</v>
+        <v>22.3345546493093</v>
       </c>
       <c r="H6">
-        <v>8.781107223437125</v>
+        <v>11.61300691742615</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.30066902183007</v>
+        <v>17.69810900141879</v>
       </c>
       <c r="N6">
-        <v>17.99073489659281</v>
+        <v>16.61735767763066</v>
       </c>
       <c r="O6">
-        <v>16.4355215967663</v>
+        <v>16.95179234847568</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.554812328904562</v>
+        <v>4.63985534976544</v>
       </c>
       <c r="D7">
-        <v>1.763947673216052</v>
+        <v>2.687737130977207</v>
       </c>
       <c r="E7">
-        <v>4.199999698152229</v>
+        <v>9.847148966460157</v>
       </c>
       <c r="F7">
-        <v>21.86788856449906</v>
+        <v>19.58111259119075</v>
       </c>
       <c r="G7">
-        <v>31.92177039955042</v>
+        <v>22.59593138995519</v>
       </c>
       <c r="H7">
-        <v>8.903524044641207</v>
+        <v>11.62237187348921</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.89879712305266</v>
+        <v>17.93695881323302</v>
       </c>
       <c r="N7">
-        <v>18.25267499584375</v>
+        <v>16.70384869011264</v>
       </c>
       <c r="O7">
-        <v>16.76814967762715</v>
+        <v>17.01218299487144</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.235838874521168</v>
+        <v>4.865975381994392</v>
       </c>
       <c r="D8">
-        <v>1.816856251845028</v>
+        <v>2.694993414950076</v>
       </c>
       <c r="E8">
-        <v>3.524396405269235</v>
+        <v>9.611994682128888</v>
       </c>
       <c r="F8">
-        <v>23.89669296427032</v>
+        <v>20.08186387968247</v>
       </c>
       <c r="G8">
-        <v>35.28021709807081</v>
+        <v>23.73400874614285</v>
       </c>
       <c r="H8">
-        <v>9.44241693073077</v>
+        <v>11.67055433466331</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.38934737289928</v>
+        <v>18.95594771559181</v>
       </c>
       <c r="N8">
-        <v>19.37123735734291</v>
+        <v>17.08449682360818</v>
       </c>
       <c r="O8">
-        <v>18.19700112470336</v>
+        <v>17.28914075010145</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.436914330374794</v>
+        <v>5.291731728427412</v>
       </c>
       <c r="D9">
-        <v>1.93926383337389</v>
+        <v>2.712014578552664</v>
       </c>
       <c r="E9">
-        <v>2.276304461118044</v>
+        <v>9.191710091668625</v>
       </c>
       <c r="F9">
-        <v>27.92450379701938</v>
+        <v>21.08375229268482</v>
       </c>
       <c r="G9">
-        <v>41.29658300737513</v>
+        <v>25.88466301249707</v>
       </c>
       <c r="H9">
-        <v>10.48654720871341</v>
+        <v>11.7892536302659</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>32.74379970763764</v>
+        <v>20.81203555523141</v>
       </c>
       <c r="N9">
-        <v>21.41403285527574</v>
+        <v>17.8211873955653</v>
       </c>
       <c r="O9">
-        <v>21.2733119992565</v>
+        <v>17.86529558418908</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.240470605560196</v>
+        <v>5.589987862462325</v>
       </c>
       <c r="D10">
-        <v>2.026863178166002</v>
+        <v>2.726743433156718</v>
       </c>
       <c r="E10">
-        <v>3.163070701402403</v>
+        <v>8.907543608317127</v>
       </c>
       <c r="F10">
-        <v>30.66086087592165</v>
+        <v>21.82312866677711</v>
       </c>
       <c r="G10">
-        <v>45.38024298418664</v>
+        <v>27.39542793039741</v>
       </c>
       <c r="H10">
-        <v>11.26041345052079</v>
+        <v>11.89075318945811</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>35.62678230693442</v>
+        <v>22.07728721949012</v>
       </c>
       <c r="N10">
-        <v>22.8116553555718</v>
+        <v>18.351285742766</v>
       </c>
       <c r="O10">
-        <v>23.3897890026314</v>
+        <v>18.30446592041041</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.589621118041263</v>
+        <v>5.721849196745278</v>
       </c>
       <c r="D11">
-        <v>2.066168137181227</v>
+        <v>2.733545955857736</v>
       </c>
       <c r="E11">
-        <v>3.575603004295194</v>
+        <v>8.78355321051586</v>
       </c>
       <c r="F11">
-        <v>31.85807077582556</v>
+        <v>22.15841634927532</v>
       </c>
       <c r="G11">
-        <v>47.16824001909075</v>
+        <v>28.0641793941941</v>
       </c>
       <c r="H11">
-        <v>11.70052035150439</v>
+        <v>11.93991148725811</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>36.87135685294953</v>
+        <v>22.62956610068318</v>
       </c>
       <c r="N11">
-        <v>23.42330550820799</v>
+        <v>18.58898882254293</v>
       </c>
       <c r="O11">
-        <v>24.31530850222646</v>
+        <v>18.50677627309666</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.719541520120208</v>
+        <v>5.771185884217644</v>
       </c>
       <c r="D12">
-        <v>2.080973176963238</v>
+        <v>2.736135667477355</v>
       </c>
       <c r="E12">
-        <v>3.731825677602111</v>
+        <v>8.737355782107988</v>
       </c>
       <c r="F12">
-        <v>32.30478739679084</v>
+        <v>22.28508816263104</v>
       </c>
       <c r="G12">
-        <v>47.83561932266912</v>
+        <v>28.31451248338952</v>
       </c>
       <c r="H12">
-        <v>11.86488533588532</v>
+        <v>11.9589443359829</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>37.33317929026298</v>
+        <v>22.8352189349635</v>
       </c>
       <c r="N12">
-        <v>23.65134085582752</v>
+        <v>18.67842529277015</v>
       </c>
       <c r="O12">
-        <v>24.66060642601432</v>
+        <v>18.58367251751546</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.69166189207907</v>
+        <v>5.760587562954515</v>
       </c>
       <c r="D13">
-        <v>2.077788139402672</v>
+        <v>2.735577330994862</v>
       </c>
       <c r="E13">
-        <v>3.698176851024733</v>
+        <v>8.747271706627581</v>
       </c>
       <c r="F13">
-        <v>32.20887080870872</v>
+        <v>22.25782239921756</v>
       </c>
       <c r="G13">
-        <v>47.69231283616931</v>
+        <v>28.26073175402013</v>
       </c>
       <c r="H13">
-        <v>11.82958715913138</v>
+        <v>11.95482688971169</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>37.23413622936419</v>
+        <v>22.79108475598149</v>
       </c>
       <c r="N13">
-        <v>23.60239027280808</v>
+        <v>18.65919044332294</v>
       </c>
       <c r="O13">
-        <v>24.58646739630604</v>
+        <v>18.56710006036413</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.600355380228354</v>
+        <v>5.72592035867021</v>
       </c>
       <c r="D14">
-        <v>2.067387732754425</v>
+        <v>2.733758743118356</v>
       </c>
       <c r="E14">
-        <v>3.588454269531334</v>
+        <v>8.779737410598026</v>
       </c>
       <c r="F14">
-        <v>31.89495425438449</v>
+        <v>22.16884440352792</v>
       </c>
       <c r="G14">
-        <v>47.2233380228701</v>
+        <v>28.08483405078118</v>
       </c>
       <c r="H14">
-        <v>11.71408828223721</v>
+        <v>11.94146903012463</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>36.90954015865842</v>
+        <v>22.64655578821484</v>
       </c>
       <c r="N14">
-        <v>23.44213848858048</v>
+        <v>18.59635882136255</v>
       </c>
       <c r="O14">
-        <v>24.34381897978429</v>
+        <v>18.51309729090773</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.544130492822397</v>
+        <v>5.704606723881892</v>
       </c>
       <c r="D15">
-        <v>2.061006932002594</v>
+        <v>2.732646566520032</v>
       </c>
       <c r="E15">
-        <v>3.521252709471788</v>
+        <v>8.79972180392711</v>
       </c>
       <c r="F15">
-        <v>31.70181294851466</v>
+        <v>22.1143003818862</v>
       </c>
       <c r="G15">
-        <v>46.93482506929872</v>
+        <v>27.97670601616608</v>
       </c>
       <c r="H15">
-        <v>11.64304545612031</v>
+        <v>11.93334098835371</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>36.70948702077324</v>
+        <v>22.55757037240797</v>
       </c>
       <c r="N15">
-        <v>23.34351005825532</v>
+        <v>18.5577952091048</v>
       </c>
       <c r="O15">
-        <v>24.19452154423198</v>
+        <v>18.48005394302955</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.217328143615475</v>
+        <v>5.581289417246986</v>
       </c>
       <c r="D16">
-        <v>2.024283445108409</v>
+        <v>2.726300848443845</v>
       </c>
       <c r="E16">
-        <v>3.136100788515547</v>
+        <v>8.915752544878064</v>
       </c>
       <c r="F16">
-        <v>30.58167950226845</v>
+        <v>21.80118321636273</v>
       </c>
       <c r="G16">
-        <v>45.26201760776186</v>
+        <v>27.35132922224237</v>
       </c>
       <c r="H16">
-        <v>11.23132630203787</v>
+        <v>11.88759967927127</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>35.5441125796124</v>
+        <v>22.04071390737825</v>
       </c>
       <c r="N16">
-        <v>22.77118673066155</v>
+        <v>18.3356749580748</v>
       </c>
       <c r="O16">
-        <v>23.32856928887688</v>
+        <v>18.29128867231091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.012689885164834</v>
+        <v>5.504625003854366</v>
       </c>
       <c r="D17">
-        <v>2.001614154911762</v>
+        <v>2.72243347269696</v>
       </c>
       <c r="E17">
-        <v>2.899624200825635</v>
+        <v>8.988282708783837</v>
       </c>
       <c r="F17">
-        <v>29.88246191317337</v>
+        <v>21.60872152477603</v>
       </c>
       <c r="G17">
-        <v>44.21817290710991</v>
+        <v>26.96275542289361</v>
       </c>
       <c r="H17">
-        <v>11.02297549136561</v>
+        <v>11.86029552273561</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>34.81215853949255</v>
+        <v>21.717572028588</v>
       </c>
       <c r="N17">
-        <v>22.41381531910126</v>
+        <v>18.19847048428272</v>
       </c>
       <c r="O17">
-        <v>22.78791265038774</v>
+        <v>18.17607938050295</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.893440613573745</v>
+        <v>5.460172850194825</v>
       </c>
       <c r="D18">
-        <v>1.988524028721292</v>
+        <v>2.72021874743915</v>
       </c>
       <c r="E18">
-        <v>2.763476584017722</v>
+        <v>9.030497198130409</v>
       </c>
       <c r="F18">
-        <v>29.47579876673848</v>
+        <v>21.49793111100154</v>
       </c>
       <c r="G18">
-        <v>43.61120011624575</v>
+        <v>26.73752920756498</v>
       </c>
       <c r="H18">
-        <v>10.91016498353601</v>
+        <v>11.84487266797238</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>34.38485027183106</v>
+        <v>21.5295237878466</v>
       </c>
       <c r="N18">
-        <v>22.20599809546507</v>
+        <v>18.11923480024647</v>
       </c>
       <c r="O18">
-        <v>22.47342034143882</v>
+        <v>18.11005676996613</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.852797390131046</v>
+        <v>5.44506237471732</v>
       </c>
       <c r="D19">
-        <v>1.984083174760689</v>
+        <v>2.719470572463591</v>
       </c>
       <c r="E19">
-        <v>2.717351131875745</v>
+        <v>9.04487579146204</v>
       </c>
       <c r="F19">
-        <v>29.33733257441252</v>
+        <v>21.46040810646109</v>
       </c>
       <c r="G19">
-        <v>43.4045501886662</v>
+        <v>26.66098261471905</v>
       </c>
       <c r="H19">
-        <v>10.87191513706332</v>
+        <v>11.83969949138133</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>34.23908334611701</v>
+        <v>21.4654829302548</v>
       </c>
       <c r="N19">
-        <v>22.13524928916858</v>
+        <v>18.09235467907817</v>
       </c>
       <c r="O19">
-        <v>22.36632865945451</v>
+        <v>18.08774672935043</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.03463362709534</v>
+        <v>5.512823352488273</v>
       </c>
       <c r="D20">
-        <v>2.004032666083289</v>
+        <v>2.722844165848057</v>
       </c>
       <c r="E20">
-        <v>2.924809947163104</v>
+        <v>8.980510334356236</v>
       </c>
       <c r="F20">
-        <v>29.95735834076684</v>
+        <v>21.62921992684738</v>
       </c>
       <c r="G20">
-        <v>44.3299708643701</v>
+        <v>27.00430058978196</v>
       </c>
       <c r="H20">
-        <v>11.04382816279332</v>
+        <v>11.86317301614703</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>34.89072807328687</v>
+        <v>21.75219826773694</v>
       </c>
       <c r="N20">
-        <v>22.45209359718485</v>
+        <v>18.21310978655373</v>
       </c>
       <c r="O20">
-        <v>22.84582960606778</v>
+        <v>18.188319053199</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.627236096747302</v>
+        <v>5.73611949114679</v>
       </c>
       <c r="D21">
-        <v>2.070444718313859</v>
+        <v>2.734292541215245</v>
       </c>
       <c r="E21">
-        <v>3.62068069100415</v>
+        <v>8.770180986010107</v>
       </c>
       <c r="F21">
-        <v>31.98733763419658</v>
+        <v>22.19498848358244</v>
       </c>
       <c r="G21">
-        <v>47.36134763517099</v>
+        <v>28.13658023092776</v>
       </c>
       <c r="H21">
-        <v>11.74807473348893</v>
+        <v>11.94538131878677</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>37.00513765695209</v>
+        <v>22.68910295144796</v>
       </c>
       <c r="N21">
-        <v>23.48930635133574</v>
+        <v>18.61483026758165</v>
       </c>
       <c r="O21">
-        <v>24.41522961074911</v>
+        <v>18.52895207637706</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.00118908433851</v>
+        <v>5.878562463133065</v>
       </c>
       <c r="D22">
-        <v>2.113390455784986</v>
+        <v>2.741854369740094</v>
       </c>
       <c r="E22">
-        <v>4.075608065959273</v>
+        <v>8.637117781299558</v>
       </c>
       <c r="F22">
-        <v>33.27545423697391</v>
+        <v>22.56297449296282</v>
       </c>
       <c r="G22">
-        <v>49.28619413168322</v>
+        <v>28.85954322848511</v>
       </c>
       <c r="H22">
-        <v>12.2222995787444</v>
+        <v>12.00153772833907</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>38.33190356921451</v>
+        <v>23.28107307409887</v>
       </c>
       <c r="N22">
-        <v>24.14626272253181</v>
+        <v>18.87398264194251</v>
       </c>
       <c r="O22">
-        <v>25.41085304608308</v>
+        <v>18.75320537687561</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.802803025501884</v>
+        <v>5.802871881720349</v>
       </c>
       <c r="D23">
-        <v>2.09051101108722</v>
+        <v>2.737811513462056</v>
       </c>
       <c r="E23">
-        <v>3.832724490882027</v>
+        <v>8.707734887623523</v>
       </c>
       <c r="F23">
-        <v>32.59141903748623</v>
+        <v>22.36678105197642</v>
       </c>
       <c r="G23">
-        <v>48.26390247415052</v>
+        <v>28.47531814565714</v>
       </c>
       <c r="H23">
-        <v>11.97038974077208</v>
+        <v>11.97134784083907</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>37.6287736787934</v>
+        <v>22.96702883954219</v>
       </c>
       <c r="N23">
-        <v>23.797578292457</v>
+        <v>18.73600463685318</v>
       </c>
       <c r="O23">
-        <v>24.88215511031165</v>
+        <v>18.63339352916113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.024717849658142</v>
+        <v>5.509118048978546</v>
       </c>
       <c r="D24">
-        <v>2.00293943542233</v>
+        <v>2.722658464388652</v>
       </c>
       <c r="E24">
-        <v>2.913424089786429</v>
+        <v>8.984022617211078</v>
       </c>
       <c r="F24">
-        <v>29.9235122379554</v>
+        <v>21.61995302938958</v>
       </c>
       <c r="G24">
-        <v>44.27944837600887</v>
+        <v>26.9855237005764</v>
       </c>
       <c r="H24">
-        <v>11.03440182995694</v>
+        <v>11.86187124485185</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>34.85522703850521</v>
+        <v>21.73655080413191</v>
       </c>
       <c r="N24">
-        <v>22.43479532860719</v>
+        <v>18.20649245748161</v>
       </c>
       <c r="O24">
-        <v>22.81965676915244</v>
+        <v>18.18278482843748</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.126074461578975</v>
+        <v>5.178861000523603</v>
       </c>
       <c r="D25">
-        <v>1.90653868200924</v>
+        <v>2.706687516404662</v>
       </c>
       <c r="E25">
-        <v>2.603061695692311</v>
+        <v>9.301064664724443</v>
       </c>
       <c r="F25">
-        <v>26.8734762623911</v>
+        <v>20.81151187197308</v>
       </c>
       <c r="G25">
-        <v>39.72906273162774</v>
+        <v>25.31373075300049</v>
       </c>
       <c r="H25">
-        <v>10.20604589307927</v>
+        <v>11.75459482210793</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>31.62186638312054</v>
+        <v>20.32645524317606</v>
       </c>
       <c r="N25">
-        <v>20.87883730823923</v>
+        <v>17.62348762088206</v>
       </c>
       <c r="O25">
-        <v>20.45973581872549</v>
+        <v>17.70632989658833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_200/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.926203513158953</v>
+        <v>7.411157939018352</v>
       </c>
       <c r="D2">
-        <v>2.696935350347433</v>
+        <v>1.834013393540736</v>
       </c>
       <c r="E2">
-        <v>9.551055133018757</v>
+        <v>3.345870749751861</v>
       </c>
       <c r="F2">
-        <v>20.21922706236545</v>
+        <v>24.47344013240284</v>
       </c>
       <c r="G2">
-        <v>24.03770515646365</v>
+        <v>36.15136806300237</v>
       </c>
       <c r="H2">
-        <v>11.68526316216086</v>
+        <v>9.587813160689072</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.2229271115908</v>
+        <v>29.02811517950459</v>
       </c>
       <c r="N2">
-        <v>17.18717348326094</v>
+        <v>19.66461490238216</v>
       </c>
       <c r="O2">
-        <v>17.36657399609888</v>
+        <v>18.59980252227586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750295668971268</v>
+        <v>6.892414654099049</v>
       </c>
       <c r="D3">
-        <v>2.691275868332867</v>
+        <v>1.784022412082369</v>
       </c>
       <c r="E3">
-        <v>9.730900890615883</v>
+        <v>3.868816160194696</v>
       </c>
       <c r="F3">
-        <v>19.82259608954563</v>
+        <v>22.86616917307208</v>
       </c>
       <c r="G3">
-        <v>23.15132912399772</v>
+        <v>33.58137496650914</v>
       </c>
       <c r="H3">
-        <v>11.64445299993882</v>
+        <v>9.16532887605686</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.43818122716748</v>
+        <v>27.13520470624085</v>
       </c>
       <c r="N3">
-        <v>16.88879049546276</v>
+        <v>18.80265232162976</v>
       </c>
       <c r="O3">
-        <v>17.1446210889951</v>
+        <v>17.46895697588463</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.640462652753223</v>
+        <v>6.556698550771063</v>
       </c>
       <c r="D4">
-        <v>2.687756574144641</v>
+        <v>1.76401762157014</v>
       </c>
       <c r="E4">
-        <v>9.846501334249391</v>
+        <v>4.198170660395877</v>
       </c>
       <c r="F4">
-        <v>19.58242330420264</v>
+        <v>21.87342241367642</v>
       </c>
       <c r="G4">
-        <v>22.59898279841709</v>
+        <v>31.93101251325291</v>
       </c>
       <c r="H4">
-        <v>11.62248522319309</v>
+        <v>8.904956199804626</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.93973538741299</v>
+        <v>25.90571428770911</v>
       </c>
       <c r="N4">
-        <v>16.7048604796733</v>
+        <v>18.25572052158292</v>
       </c>
       <c r="O4">
-        <v>17.01289557268333</v>
+        <v>16.77202140388746</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.595326335925164</v>
+        <v>6.415520339181903</v>
       </c>
       <c r="D5">
-        <v>2.686311698858806</v>
+        <v>1.75880746639982</v>
       </c>
       <c r="E5">
-        <v>9.894915050933371</v>
+        <v>4.334390834248855</v>
       </c>
       <c r="F5">
-        <v>19.48555034359608</v>
+        <v>21.46065721410684</v>
       </c>
       <c r="G5">
-        <v>22.37228249242559</v>
+        <v>31.24024585484161</v>
       </c>
       <c r="H5">
-        <v>11.61431598305299</v>
+        <v>8.798745541071739</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.73271209059684</v>
+        <v>25.38771026305605</v>
       </c>
       <c r="N5">
-        <v>16.62982047292599</v>
+        <v>18.02867759542639</v>
       </c>
       <c r="O5">
-        <v>16.96042918365005</v>
+        <v>16.48365817415332</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.587811108341602</v>
+        <v>6.391812518044866</v>
       </c>
       <c r="D6">
-        <v>2.686071142315282</v>
+        <v>1.757937645120825</v>
       </c>
       <c r="E6">
-        <v>9.903033097455941</v>
+        <v>4.357130370721033</v>
       </c>
       <c r="F6">
-        <v>19.46952953201829</v>
+        <v>21.39163113892636</v>
       </c>
       <c r="G6">
-        <v>22.3345546493093</v>
+        <v>31.12444391833702</v>
       </c>
       <c r="H6">
-        <v>11.61300691742615</v>
+        <v>8.781107223437125</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.69810900141879</v>
+        <v>25.30066902183007</v>
       </c>
       <c r="N6">
-        <v>16.61735767763066</v>
+        <v>17.99073489659281</v>
       </c>
       <c r="O6">
-        <v>16.95179234847568</v>
+        <v>16.43552159676629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.63985534976544</v>
+        <v>6.554812328904597</v>
       </c>
       <c r="D7">
-        <v>2.687737130977207</v>
+        <v>1.76394767321612</v>
       </c>
       <c r="E7">
-        <v>9.847148966460157</v>
+        <v>4.199999698152362</v>
       </c>
       <c r="F7">
-        <v>19.58111259119075</v>
+        <v>21.86788856449905</v>
       </c>
       <c r="G7">
-        <v>22.59593138995519</v>
+        <v>31.92177039955049</v>
       </c>
       <c r="H7">
-        <v>11.62237187348921</v>
+        <v>8.903524044641186</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.93695881323302</v>
+        <v>25.8987971230527</v>
       </c>
       <c r="N7">
-        <v>16.70384869011264</v>
+        <v>18.25267499584378</v>
       </c>
       <c r="O7">
-        <v>17.01218299487144</v>
+        <v>16.76814967762713</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.865975381994392</v>
+        <v>7.235838874521152</v>
       </c>
       <c r="D8">
-        <v>2.694993414950076</v>
+        <v>1.816856251844981</v>
       </c>
       <c r="E8">
-        <v>9.611994682128888</v>
+        <v>3.524396405269167</v>
       </c>
       <c r="F8">
-        <v>20.08186387968247</v>
+        <v>23.89669296427032</v>
       </c>
       <c r="G8">
-        <v>23.73400874614285</v>
+        <v>35.28021709807089</v>
       </c>
       <c r="H8">
-        <v>11.67055433466331</v>
+        <v>9.442416930730746</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.95594771559181</v>
+        <v>28.38934737289927</v>
       </c>
       <c r="N8">
-        <v>17.08449682360818</v>
+        <v>19.37123735734287</v>
       </c>
       <c r="O8">
-        <v>17.28914075010145</v>
+        <v>18.19700112470336</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.291731728427412</v>
+        <v>8.436914330374828</v>
       </c>
       <c r="D9">
-        <v>2.712014578552664</v>
+        <v>1.939263833373791</v>
       </c>
       <c r="E9">
-        <v>9.191710091668625</v>
+        <v>2.276304461118043</v>
       </c>
       <c r="F9">
-        <v>21.08375229268482</v>
+        <v>27.92450379701943</v>
       </c>
       <c r="G9">
-        <v>25.88466301249707</v>
+        <v>41.2965830073752</v>
       </c>
       <c r="H9">
-        <v>11.7892536302659</v>
+        <v>10.48654720871341</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.81203555523141</v>
+        <v>32.74379970763766</v>
       </c>
       <c r="N9">
-        <v>17.8211873955653</v>
+        <v>21.41403285527575</v>
       </c>
       <c r="O9">
-        <v>17.86529558418908</v>
+        <v>21.27331199925652</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.589987862462325</v>
+        <v>9.240470605560228</v>
       </c>
       <c r="D10">
-        <v>2.726743433156718</v>
+        <v>2.026863178165948</v>
       </c>
       <c r="E10">
-        <v>8.907543608317127</v>
+        <v>3.163070701402534</v>
       </c>
       <c r="F10">
-        <v>21.82312866677711</v>
+        <v>30.66086087592155</v>
       </c>
       <c r="G10">
-        <v>27.39542793039741</v>
+        <v>45.38024298418643</v>
       </c>
       <c r="H10">
-        <v>11.89075318945811</v>
+        <v>11.26041345052077</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.07728721949012</v>
+        <v>35.62678230693436</v>
       </c>
       <c r="N10">
-        <v>18.351285742766</v>
+        <v>22.81165535557182</v>
       </c>
       <c r="O10">
-        <v>18.30446592041041</v>
+        <v>23.3897890026313</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.721849196745278</v>
+        <v>9.589621118041253</v>
       </c>
       <c r="D11">
-        <v>2.733545955857736</v>
+        <v>2.066168137181421</v>
       </c>
       <c r="E11">
-        <v>8.78355321051586</v>
+        <v>3.575603004295259</v>
       </c>
       <c r="F11">
-        <v>22.15841634927532</v>
+        <v>31.85807077582551</v>
       </c>
       <c r="G11">
-        <v>28.0641793941941</v>
+        <v>47.16824001909073</v>
       </c>
       <c r="H11">
-        <v>11.93991148725811</v>
+        <v>11.70052035150437</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.62956610068318</v>
+        <v>36.87135685294952</v>
       </c>
       <c r="N11">
-        <v>18.58898882254293</v>
+        <v>23.42330550820799</v>
       </c>
       <c r="O11">
-        <v>18.50677627309666</v>
+        <v>24.31530850222645</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.771185884217644</v>
+        <v>9.719541520120254</v>
       </c>
       <c r="D12">
-        <v>2.736135667477355</v>
+        <v>2.080973176963157</v>
       </c>
       <c r="E12">
-        <v>8.737355782107988</v>
+        <v>3.731825677602311</v>
       </c>
       <c r="F12">
-        <v>22.28508816263104</v>
+        <v>32.30478739679076</v>
       </c>
       <c r="G12">
-        <v>28.31451248338952</v>
+        <v>47.83561932266893</v>
       </c>
       <c r="H12">
-        <v>11.9589443359829</v>
+        <v>11.86488533588527</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.8352189349635</v>
+        <v>37.33317929026292</v>
       </c>
       <c r="N12">
-        <v>18.67842529277015</v>
+        <v>23.6513408558275</v>
       </c>
       <c r="O12">
-        <v>18.58367251751546</v>
+        <v>24.66060642601422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.760587562954515</v>
+        <v>9.6916618920791</v>
       </c>
       <c r="D13">
-        <v>2.735577330994862</v>
+        <v>2.077788139402632</v>
       </c>
       <c r="E13">
-        <v>8.747271706627581</v>
+        <v>3.698176851024868</v>
       </c>
       <c r="F13">
-        <v>22.25782239921756</v>
+        <v>32.2088708087087</v>
       </c>
       <c r="G13">
-        <v>28.26073175402013</v>
+        <v>47.69231283616927</v>
       </c>
       <c r="H13">
-        <v>11.95482688971169</v>
+        <v>11.82958715913136</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.79108475598149</v>
+        <v>37.23413622936418</v>
       </c>
       <c r="N13">
-        <v>18.65919044332294</v>
+        <v>23.60239027280808</v>
       </c>
       <c r="O13">
-        <v>18.56710006036413</v>
+        <v>24.586467396306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.72592035867021</v>
+        <v>9.600355380228347</v>
       </c>
       <c r="D14">
-        <v>2.733758743118356</v>
+        <v>2.067387732754289</v>
       </c>
       <c r="E14">
-        <v>8.779737410598026</v>
+        <v>3.588454269531334</v>
       </c>
       <c r="F14">
-        <v>22.16884440352792</v>
+        <v>31.89495425438455</v>
       </c>
       <c r="G14">
-        <v>28.08483405078118</v>
+        <v>47.22333802287009</v>
       </c>
       <c r="H14">
-        <v>11.94146903012463</v>
+        <v>11.71408828223724</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.64655578821484</v>
+        <v>36.90954015865842</v>
       </c>
       <c r="N14">
-        <v>18.59635882136255</v>
+        <v>23.44213848858049</v>
       </c>
       <c r="O14">
-        <v>18.51309729090773</v>
+        <v>24.34381897978431</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.704606723881892</v>
+        <v>9.544130492822431</v>
       </c>
       <c r="D15">
-        <v>2.732646566520032</v>
+        <v>2.061006932002489</v>
       </c>
       <c r="E15">
-        <v>8.79972180392711</v>
+        <v>3.521252709471651</v>
       </c>
       <c r="F15">
-        <v>22.1143003818862</v>
+        <v>31.70181294851477</v>
       </c>
       <c r="G15">
-        <v>27.97670601616608</v>
+        <v>46.93482506929887</v>
       </c>
       <c r="H15">
-        <v>11.93334098835371</v>
+        <v>11.64304545612033</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.55757037240797</v>
+        <v>36.70948702077325</v>
       </c>
       <c r="N15">
-        <v>18.5577952091048</v>
+        <v>23.34351005825531</v>
       </c>
       <c r="O15">
-        <v>18.48005394302955</v>
+        <v>24.19452154423207</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.581289417246986</v>
+        <v>9.217328143615322</v>
       </c>
       <c r="D16">
-        <v>2.726300848443845</v>
+        <v>2.024283445108379</v>
       </c>
       <c r="E16">
-        <v>8.915752544878064</v>
+        <v>3.136100788515617</v>
       </c>
       <c r="F16">
-        <v>21.80118321636273</v>
+        <v>30.58167950226843</v>
       </c>
       <c r="G16">
-        <v>27.35132922224237</v>
+        <v>45.26201760776181</v>
       </c>
       <c r="H16">
-        <v>11.88759967927127</v>
+        <v>11.23132630203786</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.04071390737825</v>
+        <v>35.54411257961238</v>
       </c>
       <c r="N16">
-        <v>18.3356749580748</v>
+        <v>22.77118673066152</v>
       </c>
       <c r="O16">
-        <v>18.29128867231091</v>
+        <v>23.32856928887685</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.504625003854366</v>
+        <v>9.012689885164828</v>
       </c>
       <c r="D17">
-        <v>2.72243347269696</v>
+        <v>2.001614154911864</v>
       </c>
       <c r="E17">
-        <v>8.988282708783837</v>
+        <v>2.8996242008255</v>
       </c>
       <c r="F17">
-        <v>21.60872152477603</v>
+        <v>29.88246191317345</v>
       </c>
       <c r="G17">
-        <v>26.96275542289361</v>
+        <v>44.21817290711001</v>
       </c>
       <c r="H17">
-        <v>11.86029552273561</v>
+        <v>11.02297549136562</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.717572028588</v>
+        <v>34.81215853949257</v>
       </c>
       <c r="N17">
-        <v>18.19847048428272</v>
+        <v>22.41381531910125</v>
       </c>
       <c r="O17">
-        <v>18.17607938050295</v>
+        <v>22.7879126503878</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.460172850194825</v>
+        <v>8.893440613573715</v>
       </c>
       <c r="D18">
-        <v>2.72021874743915</v>
+        <v>1.98852402872125</v>
       </c>
       <c r="E18">
-        <v>9.030497198130409</v>
+        <v>2.763476584017923</v>
       </c>
       <c r="F18">
-        <v>21.49793111100154</v>
+        <v>29.47579876673844</v>
       </c>
       <c r="G18">
-        <v>26.73752920756498</v>
+        <v>43.61120011624568</v>
       </c>
       <c r="H18">
-        <v>11.84487266797238</v>
+        <v>10.91016498353603</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.5295237878466</v>
+        <v>34.38485027183106</v>
       </c>
       <c r="N18">
-        <v>18.11923480024647</v>
+        <v>22.20599809546508</v>
       </c>
       <c r="O18">
-        <v>18.11005676996613</v>
+        <v>22.47342034143876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.44506237471732</v>
+        <v>8.852797390131</v>
       </c>
       <c r="D19">
-        <v>2.719470572463591</v>
+        <v>1.984083174760689</v>
       </c>
       <c r="E19">
-        <v>9.04487579146204</v>
+        <v>2.717351131875677</v>
       </c>
       <c r="F19">
-        <v>21.46040810646109</v>
+        <v>29.33733257441254</v>
       </c>
       <c r="G19">
-        <v>26.66098261471905</v>
+        <v>43.40455018866624</v>
       </c>
       <c r="H19">
-        <v>11.83969949138133</v>
+        <v>10.87191513706332</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.4654829302548</v>
+        <v>34.239083346117</v>
       </c>
       <c r="N19">
-        <v>18.09235467907817</v>
+        <v>22.13524928916858</v>
       </c>
       <c r="O19">
-        <v>18.08774672935043</v>
+        <v>22.36632865945453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.512823352488273</v>
+        <v>9.034633627095335</v>
       </c>
       <c r="D20">
-        <v>2.722844165848057</v>
+        <v>2.004032666083246</v>
       </c>
       <c r="E20">
-        <v>8.980510334356236</v>
+        <v>2.924809947163105</v>
       </c>
       <c r="F20">
-        <v>21.62921992684738</v>
+        <v>29.95735834076691</v>
       </c>
       <c r="G20">
-        <v>27.00430058978196</v>
+        <v>44.32997086437016</v>
       </c>
       <c r="H20">
-        <v>11.86317301614703</v>
+        <v>11.04382816279332</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.75219826773694</v>
+        <v>34.89072807328689</v>
       </c>
       <c r="N20">
-        <v>18.21310978655373</v>
+        <v>22.45209359718485</v>
       </c>
       <c r="O20">
-        <v>18.188319053199</v>
+        <v>22.84582960606783</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.73611949114679</v>
+        <v>9.627236096747348</v>
       </c>
       <c r="D21">
-        <v>2.734292541215245</v>
+        <v>2.070444718313871</v>
       </c>
       <c r="E21">
-        <v>8.770180986010107</v>
+        <v>3.62068069100415</v>
       </c>
       <c r="F21">
-        <v>22.19498848358244</v>
+        <v>31.98733763419658</v>
       </c>
       <c r="G21">
-        <v>28.13658023092776</v>
+        <v>47.36134763517099</v>
       </c>
       <c r="H21">
-        <v>11.94538131878677</v>
+        <v>11.74807473348893</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.68910295144796</v>
+        <v>37.0051376569521</v>
       </c>
       <c r="N21">
-        <v>18.61483026758165</v>
+        <v>23.48930635133577</v>
       </c>
       <c r="O21">
-        <v>18.52895207637706</v>
+        <v>24.4152296107491</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.878562463133065</v>
+        <v>10.00118908433846</v>
       </c>
       <c r="D22">
-        <v>2.741854369740094</v>
+        <v>2.113390455784916</v>
       </c>
       <c r="E22">
-        <v>8.637117781299558</v>
+        <v>4.075608065959341</v>
       </c>
       <c r="F22">
-        <v>22.56297449296282</v>
+        <v>33.27545423697384</v>
       </c>
       <c r="G22">
-        <v>28.85954322848511</v>
+        <v>49.28619413168313</v>
       </c>
       <c r="H22">
-        <v>12.00153772833907</v>
+        <v>12.22229957874439</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.28107307409887</v>
+        <v>38.33190356921449</v>
       </c>
       <c r="N22">
-        <v>18.87398264194251</v>
+        <v>24.14626272253179</v>
       </c>
       <c r="O22">
-        <v>18.75320537687561</v>
+        <v>25.41085304608303</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.802871881720349</v>
+        <v>9.802803025501818</v>
       </c>
       <c r="D23">
-        <v>2.737811513462056</v>
+        <v>2.090511011087161</v>
       </c>
       <c r="E23">
-        <v>8.707734887623523</v>
+        <v>3.832724490881958</v>
       </c>
       <c r="F23">
-        <v>22.36678105197642</v>
+        <v>32.59141903748625</v>
       </c>
       <c r="G23">
-        <v>28.47531814565714</v>
+        <v>48.26390247415052</v>
       </c>
       <c r="H23">
-        <v>11.97134784083907</v>
+        <v>11.97038974077208</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.96702883954219</v>
+        <v>37.62877367879338</v>
       </c>
       <c r="N23">
-        <v>18.73600463685318</v>
+        <v>23.797578292457</v>
       </c>
       <c r="O23">
-        <v>18.63339352916113</v>
+        <v>24.88215511031164</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.509118048978546</v>
+        <v>9.024717849658085</v>
       </c>
       <c r="D24">
-        <v>2.722658464388652</v>
+        <v>2.002939435422324</v>
       </c>
       <c r="E24">
-        <v>8.984022617211078</v>
+        <v>2.913424089786563</v>
       </c>
       <c r="F24">
-        <v>21.61995302938958</v>
+        <v>29.92351223795533</v>
       </c>
       <c r="G24">
-        <v>26.9855237005764</v>
+        <v>44.27944837600878</v>
       </c>
       <c r="H24">
-        <v>11.86187124485185</v>
+        <v>11.03440182995696</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.73655080413191</v>
+        <v>34.85522703850521</v>
       </c>
       <c r="N24">
-        <v>18.20649245748161</v>
+        <v>22.43479532860721</v>
       </c>
       <c r="O24">
-        <v>18.18278482843748</v>
+        <v>22.81965676915238</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.178861000523603</v>
+        <v>8.126074461578867</v>
       </c>
       <c r="D25">
-        <v>2.706687516404662</v>
+        <v>1.906538682009252</v>
       </c>
       <c r="E25">
-        <v>9.301064664724443</v>
+        <v>2.603061695692444</v>
       </c>
       <c r="F25">
-        <v>20.81151187197308</v>
+        <v>26.87347626239107</v>
       </c>
       <c r="G25">
-        <v>25.31373075300049</v>
+        <v>39.72906273162766</v>
       </c>
       <c r="H25">
-        <v>11.75459482210793</v>
+        <v>10.20604589307927</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.32645524317606</v>
+        <v>31.6218663831205</v>
       </c>
       <c r="N25">
-        <v>17.62348762088206</v>
+        <v>20.87883730823923</v>
       </c>
       <c r="O25">
-        <v>17.70632989658833</v>
+        <v>20.45973581872545</v>
       </c>
     </row>
   </sheetData>
